--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adipoq-Adipor1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adipoq-Adipor1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Adipor1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.299053666666667</v>
+        <v>0.03879333333333333</v>
       </c>
       <c r="H2">
-        <v>3.897161</v>
+        <v>0.11638</v>
       </c>
       <c r="I2">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502433</v>
       </c>
       <c r="J2">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502432</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.11518666666666</v>
+        <v>25.77670733333333</v>
       </c>
       <c r="N2">
-        <v>84.34555999999999</v>
+        <v>77.33012199999999</v>
       </c>
       <c r="O2">
-        <v>0.2380784997452468</v>
+        <v>0.2026322694726231</v>
       </c>
       <c r="P2">
-        <v>0.2380784997452468</v>
+        <v>0.2026322694726231</v>
       </c>
       <c r="Q2">
-        <v>36.5231363283511</v>
+        <v>0.9999643998177776</v>
       </c>
       <c r="R2">
-        <v>328.7082269551599</v>
+        <v>8.999679598359998</v>
       </c>
       <c r="S2">
-        <v>0.2289782110434299</v>
+        <v>0.005498276310408612</v>
       </c>
       <c r="T2">
-        <v>0.2289782110434299</v>
+        <v>0.005498276310408609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.299053666666667</v>
+        <v>0.03879333333333333</v>
       </c>
       <c r="H3">
-        <v>3.897161</v>
+        <v>0.11638</v>
       </c>
       <c r="I3">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502433</v>
       </c>
       <c r="J3">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502432</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.22457466666666</v>
+        <v>14.22457466666667</v>
       </c>
       <c r="N3">
-        <v>42.67372399999999</v>
+        <v>42.673724</v>
       </c>
       <c r="O3">
-        <v>0.1204532424523915</v>
+        <v>0.1118202495654713</v>
       </c>
       <c r="P3">
-        <v>0.1204532424523915</v>
+        <v>0.1118202495654713</v>
       </c>
       <c r="Q3">
-        <v>18.4784858775071</v>
+        <v>0.5518186665688889</v>
       </c>
       <c r="R3">
-        <v>166.306372897564</v>
+        <v>4.96636799912</v>
       </c>
       <c r="S3">
-        <v>0.1158490497908968</v>
+        <v>0.003034159518668747</v>
       </c>
       <c r="T3">
-        <v>0.1158490497908968</v>
+        <v>0.003034159518668746</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.299053666666667</v>
+        <v>0.03879333333333333</v>
       </c>
       <c r="H4">
-        <v>3.897161</v>
+        <v>0.11638</v>
       </c>
       <c r="I4">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502433</v>
       </c>
       <c r="J4">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502432</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.33447066666667</v>
+        <v>38.867728</v>
       </c>
       <c r="N4">
-        <v>100.003412</v>
+        <v>116.603184</v>
       </c>
       <c r="O4">
-        <v>0.282275229405861</v>
+        <v>0.3055415818644882</v>
       </c>
       <c r="P4">
-        <v>0.282275229405861</v>
+        <v>0.3055415818644882</v>
       </c>
       <c r="Q4">
-        <v>43.30326634592578</v>
+        <v>1.507808728213333</v>
       </c>
       <c r="R4">
-        <v>389.729397113332</v>
+        <v>13.57027855392</v>
       </c>
       <c r="S4">
-        <v>0.2714855693411611</v>
+        <v>0.008290644159405522</v>
       </c>
       <c r="T4">
-        <v>0.2714855693411611</v>
+        <v>0.00829064415940552</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.299053666666667</v>
+        <v>0.03879333333333333</v>
       </c>
       <c r="H5">
-        <v>3.897161</v>
+        <v>0.11638</v>
       </c>
       <c r="I5">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502433</v>
       </c>
       <c r="J5">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502432</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.945706666666666</v>
+        <v>7.179658</v>
       </c>
       <c r="N5">
-        <v>23.83712</v>
+        <v>21.538974</v>
       </c>
       <c r="O5">
-        <v>0.06728398943403088</v>
+        <v>0.05643972970496313</v>
       </c>
       <c r="P5">
-        <v>0.06728398943403088</v>
+        <v>0.05643972970496313</v>
       </c>
       <c r="Q5">
-        <v>10.32189937959111</v>
+        <v>0.2785228660133333</v>
       </c>
       <c r="R5">
-        <v>92.89709441631999</v>
+        <v>2.50670579412</v>
       </c>
       <c r="S5">
-        <v>0.06471213296855891</v>
+        <v>0.001531450196014265</v>
       </c>
       <c r="T5">
-        <v>0.06471213296855891</v>
+        <v>0.001531450196014264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.299053666666667</v>
+        <v>0.03879333333333333</v>
       </c>
       <c r="H6">
-        <v>3.897161</v>
+        <v>0.11638</v>
       </c>
       <c r="I6">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502433</v>
       </c>
       <c r="J6">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502432</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.47214733333333</v>
+        <v>41.160623</v>
       </c>
       <c r="N6">
-        <v>103.416442</v>
+        <v>123.481869</v>
       </c>
       <c r="O6">
-        <v>0.2919090389624698</v>
+        <v>0.3235661693924542</v>
       </c>
       <c r="P6">
-        <v>0.2919090389624698</v>
+        <v>0.3235661693924542</v>
       </c>
       <c r="Q6">
-        <v>44.78116939124022</v>
+        <v>1.596757768246667</v>
       </c>
       <c r="R6">
-        <v>403.030524521162</v>
+        <v>14.37081991422</v>
       </c>
       <c r="S6">
-        <v>0.2807511371272729</v>
+        <v>0.008779727970527184</v>
       </c>
       <c r="T6">
-        <v>0.280751137127273</v>
+        <v>0.008779727970527182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05162833333333333</v>
+        <v>1.299053666666667</v>
       </c>
       <c r="H7">
-        <v>0.154885</v>
+        <v>3.897161</v>
       </c>
       <c r="I7">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225019</v>
       </c>
       <c r="J7">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225017</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.11518666666666</v>
+        <v>25.77670733333333</v>
       </c>
       <c r="N7">
-        <v>84.34555999999999</v>
+        <v>77.33012199999999</v>
       </c>
       <c r="O7">
-        <v>0.2380784997452468</v>
+        <v>0.2026322694726231</v>
       </c>
       <c r="P7">
-        <v>0.2380784997452468</v>
+        <v>0.2026322694726231</v>
       </c>
       <c r="Q7">
-        <v>1.451540228955555</v>
+        <v>33.48532617596022</v>
       </c>
       <c r="R7">
-        <v>13.0638620606</v>
+        <v>301.367935583642</v>
       </c>
       <c r="S7">
-        <v>0.009100288701816946</v>
+        <v>0.1841181302985765</v>
       </c>
       <c r="T7">
-        <v>0.009100288701816946</v>
+        <v>0.1841181302985764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.05162833333333333</v>
+        <v>1.299053666666667</v>
       </c>
       <c r="H8">
-        <v>0.154885</v>
+        <v>3.897161</v>
       </c>
       <c r="I8">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225019</v>
       </c>
       <c r="J8">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225017</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.22457466666666</v>
+        <v>14.22457466666667</v>
       </c>
       <c r="N8">
-        <v>42.67372399999999</v>
+        <v>42.673724</v>
       </c>
       <c r="O8">
-        <v>0.1204532424523915</v>
+        <v>0.1118202495654713</v>
       </c>
       <c r="P8">
-        <v>0.1204532424523915</v>
+        <v>0.1118202495654713</v>
       </c>
       <c r="Q8">
-        <v>0.7343910824155554</v>
+        <v>18.47848587750711</v>
       </c>
       <c r="R8">
-        <v>6.609519741739999</v>
+        <v>166.306372897564</v>
       </c>
       <c r="S8">
-        <v>0.004604192661494626</v>
+        <v>0.1016034382534337</v>
       </c>
       <c r="T8">
-        <v>0.004604192661494626</v>
+        <v>0.1016034382534336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.05162833333333333</v>
+        <v>1.299053666666667</v>
       </c>
       <c r="H9">
-        <v>0.154885</v>
+        <v>3.897161</v>
       </c>
       <c r="I9">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225019</v>
       </c>
       <c r="J9">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225017</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.33447066666667</v>
+        <v>38.867728</v>
       </c>
       <c r="N9">
-        <v>100.003412</v>
+        <v>116.603184</v>
       </c>
       <c r="O9">
-        <v>0.282275229405861</v>
+        <v>0.3055415818644882</v>
       </c>
       <c r="P9">
-        <v>0.282275229405861</v>
+        <v>0.3055415818644882</v>
       </c>
       <c r="Q9">
-        <v>1.721003163068889</v>
+        <v>50.49126457340266</v>
       </c>
       <c r="R9">
-        <v>15.48902846762</v>
+        <v>454.421381160624</v>
       </c>
       <c r="S9">
-        <v>0.01078966006469985</v>
+        <v>0.2776248073802456</v>
       </c>
       <c r="T9">
-        <v>0.01078966006469985</v>
+        <v>0.2776248073802455</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05162833333333333</v>
+        <v>1.299053666666667</v>
       </c>
       <c r="H10">
-        <v>0.154885</v>
+        <v>3.897161</v>
       </c>
       <c r="I10">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225019</v>
       </c>
       <c r="J10">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225017</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.945706666666666</v>
+        <v>7.179658</v>
       </c>
       <c r="N10">
-        <v>23.83712</v>
+        <v>21.538974</v>
       </c>
       <c r="O10">
-        <v>0.06728398943403088</v>
+        <v>0.05643972970496313</v>
       </c>
       <c r="P10">
-        <v>0.06728398943403088</v>
+        <v>0.05643972970496313</v>
       </c>
       <c r="Q10">
-        <v>0.4102235923555555</v>
+        <v>9.326761050312665</v>
       </c>
       <c r="R10">
-        <v>3.692012331199999</v>
+        <v>83.94084945281399</v>
       </c>
       <c r="S10">
-        <v>0.00257185646547198</v>
+        <v>0.05128293501760739</v>
       </c>
       <c r="T10">
-        <v>0.00257185646547198</v>
+        <v>0.05128293501760738</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05162833333333333</v>
+        <v>1.299053666666667</v>
       </c>
       <c r="H11">
-        <v>0.154885</v>
+        <v>3.897161</v>
       </c>
       <c r="I11">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225019</v>
       </c>
       <c r="J11">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225017</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,648 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.47214733333333</v>
+        <v>41.160623</v>
       </c>
       <c r="N11">
-        <v>103.416442</v>
+        <v>123.481869</v>
       </c>
       <c r="O11">
-        <v>0.2919090389624698</v>
+        <v>0.3235661693924542</v>
       </c>
       <c r="P11">
-        <v>0.2919090389624698</v>
+        <v>0.3235661693924542</v>
       </c>
       <c r="Q11">
-        <v>1.779739513241111</v>
+        <v>53.46985823043433</v>
       </c>
       <c r="R11">
-        <v>16.01765561917</v>
+        <v>481.2287240739089</v>
       </c>
       <c r="S11">
-        <v>0.01115790183519687</v>
+        <v>0.2940025213726387</v>
       </c>
       <c r="T11">
-        <v>0.01115790183519687</v>
+        <v>0.2940025213726386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06760233333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.202807</v>
+      </c>
+      <c r="I12">
+        <v>0.04728490714595308</v>
+      </c>
+      <c r="J12">
+        <v>0.04728490714595306</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>25.77670733333333</v>
+      </c>
+      <c r="N12">
+        <v>77.33012199999999</v>
+      </c>
+      <c r="O12">
+        <v>0.2026322694726231</v>
+      </c>
+      <c r="P12">
+        <v>0.2026322694726231</v>
+      </c>
+      <c r="Q12">
+        <v>1.742565561383778</v>
+      </c>
+      <c r="R12">
+        <v>15.683090052454</v>
+      </c>
+      <c r="S12">
+        <v>0.009581448046786727</v>
+      </c>
+      <c r="T12">
+        <v>0.009581448046786721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06760233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.202807</v>
+      </c>
+      <c r="I13">
+        <v>0.04728490714595308</v>
+      </c>
+      <c r="J13">
+        <v>0.04728490714595306</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.22457466666667</v>
+      </c>
+      <c r="N13">
+        <v>42.673724</v>
+      </c>
+      <c r="O13">
+        <v>0.1118202495654713</v>
+      </c>
+      <c r="P13">
+        <v>0.1118202495654713</v>
+      </c>
+      <c r="Q13">
+        <v>0.961614438140889</v>
+      </c>
+      <c r="R13">
+        <v>8.654529943267999</v>
+      </c>
+      <c r="S13">
+        <v>0.005287410117740612</v>
+      </c>
+      <c r="T13">
+        <v>0.00528741011774061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06760233333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.202807</v>
+      </c>
+      <c r="I14">
+        <v>0.04728490714595308</v>
+      </c>
+      <c r="J14">
+        <v>0.04728490714595306</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>38.867728</v>
+      </c>
+      <c r="N14">
+        <v>116.603184</v>
+      </c>
+      <c r="O14">
+        <v>0.3055415818644882</v>
+      </c>
+      <c r="P14">
+        <v>0.3055415818644882</v>
+      </c>
+      <c r="Q14">
+        <v>2.627549104165333</v>
+      </c>
+      <c r="R14">
+        <v>23.647941937488</v>
+      </c>
+      <c r="S14">
+        <v>0.01444750532768994</v>
+      </c>
+      <c r="T14">
+        <v>0.01444750532768994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06760233333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.202807</v>
+      </c>
+      <c r="I15">
+        <v>0.04728490714595308</v>
+      </c>
+      <c r="J15">
+        <v>0.04728490714595306</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.179658</v>
+      </c>
+      <c r="N15">
+        <v>21.538974</v>
+      </c>
+      <c r="O15">
+        <v>0.05643972970496313</v>
+      </c>
+      <c r="P15">
+        <v>0.05643972970496313</v>
+      </c>
+      <c r="Q15">
+        <v>0.4853616333353333</v>
+      </c>
+      <c r="R15">
+        <v>4.368254700017999</v>
+      </c>
+      <c r="S15">
+        <v>0.002668747378441871</v>
+      </c>
+      <c r="T15">
+        <v>0.002668747378441871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06760233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.202807</v>
+      </c>
+      <c r="I16">
+        <v>0.04728490714595308</v>
+      </c>
+      <c r="J16">
+        <v>0.04728490714595306</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>41.160623</v>
+      </c>
+      <c r="N16">
+        <v>123.481869</v>
+      </c>
+      <c r="O16">
+        <v>0.3235661693924542</v>
+      </c>
+      <c r="P16">
+        <v>0.3235661693924542</v>
+      </c>
+      <c r="Q16">
+        <v>2.782554156253667</v>
+      </c>
+      <c r="R16">
+        <v>25.042987406283</v>
+      </c>
+      <c r="S16">
+        <v>0.01529979627529392</v>
+      </c>
+      <c r="T16">
+        <v>0.01529979627529392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02423166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.072695</v>
+      </c>
+      <c r="I17">
+        <v>0.01694900237652083</v>
+      </c>
+      <c r="J17">
+        <v>0.01694900237652082</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>25.77670733333333</v>
+      </c>
+      <c r="N17">
+        <v>77.33012199999999</v>
+      </c>
+      <c r="O17">
+        <v>0.2026322694726231</v>
+      </c>
+      <c r="P17">
+        <v>0.2026322694726231</v>
+      </c>
+      <c r="Q17">
+        <v>0.6246125798655554</v>
+      </c>
+      <c r="R17">
+        <v>5.621513218789999</v>
+      </c>
+      <c r="S17">
+        <v>0.003434414816851298</v>
+      </c>
+      <c r="T17">
+        <v>0.003434414816851296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02423166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.072695</v>
+      </c>
+      <c r="I18">
+        <v>0.01694900237652083</v>
+      </c>
+      <c r="J18">
+        <v>0.01694900237652082</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.22457466666667</v>
+      </c>
+      <c r="N18">
+        <v>42.673724</v>
+      </c>
+      <c r="O18">
+        <v>0.1118202495654713</v>
+      </c>
+      <c r="P18">
+        <v>0.1118202495654713</v>
+      </c>
+      <c r="Q18">
+        <v>0.3446851517977778</v>
+      </c>
+      <c r="R18">
+        <v>3.10216636618</v>
+      </c>
+      <c r="S18">
+        <v>0.001895241675628325</v>
+      </c>
+      <c r="T18">
+        <v>0.001895241675628325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02423166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.072695</v>
+      </c>
+      <c r="I19">
+        <v>0.01694900237652083</v>
+      </c>
+      <c r="J19">
+        <v>0.01694900237652082</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>38.867728</v>
+      </c>
+      <c r="N19">
+        <v>116.603184</v>
+      </c>
+      <c r="O19">
+        <v>0.3055415818644882</v>
+      </c>
+      <c r="P19">
+        <v>0.3055415818644882</v>
+      </c>
+      <c r="Q19">
+        <v>0.9418298289866666</v>
+      </c>
+      <c r="R19">
+        <v>8.47646846088</v>
+      </c>
+      <c r="S19">
+        <v>0.005178624997147142</v>
+      </c>
+      <c r="T19">
+        <v>0.00517862499714714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02423166666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.072695</v>
+      </c>
+      <c r="I20">
+        <v>0.01694900237652083</v>
+      </c>
+      <c r="J20">
+        <v>0.01694900237652082</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.179658</v>
+      </c>
+      <c r="N20">
+        <v>21.538974</v>
+      </c>
+      <c r="O20">
+        <v>0.05643972970496313</v>
+      </c>
+      <c r="P20">
+        <v>0.05643972970496313</v>
+      </c>
+      <c r="Q20">
+        <v>0.1739750794366667</v>
+      </c>
+      <c r="R20">
+        <v>1.56577571493</v>
+      </c>
+      <c r="S20">
+        <v>0.0009565971128996132</v>
+      </c>
+      <c r="T20">
+        <v>0.0009565971128996127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02423166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.072695</v>
+      </c>
+      <c r="I21">
+        <v>0.01694900237652083</v>
+      </c>
+      <c r="J21">
+        <v>0.01694900237652082</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>41.160623</v>
+      </c>
+      <c r="N21">
+        <v>123.481869</v>
+      </c>
+      <c r="O21">
+        <v>0.3235661693924542</v>
+      </c>
+      <c r="P21">
+        <v>0.3235661693924542</v>
+      </c>
+      <c r="Q21">
+        <v>0.9973904963283333</v>
+      </c>
+      <c r="R21">
+        <v>8.976514466954999</v>
+      </c>
+      <c r="S21">
+        <v>0.005484123773994446</v>
+      </c>
+      <c r="T21">
+        <v>0.005484123773994445</v>
       </c>
     </row>
   </sheetData>
